--- a/biology/Zoologie/Callambulyx_rubricosa/Callambulyx_rubricosa.xlsx
+++ b/biology/Zoologie/Callambulyx_rubricosa/Callambulyx_rubricosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callambulyx rubricosa est une espèce de lépidoptères de la famille des Sphingidae, de la sous-famille des Smerinthinae, de la tribu des Smerinthini et du genre Callambulyx.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Envergure ailes déployées : 132 mm. L'espèce est semblable à Callambulyx amanda, mais s'en distingue au niveau de la face dorsale par le marquage sombre du coin inférieur de l'aille postérieure.
 			Face dorsale de la femelle MHNT
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition
 Il est connu au Népal, au nord-est de l'Inde, au sud-ouest de la Chine, en Thaïlande, au Laos, au Vietnam et à Java.
@@ -576,16 +592,86 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Callambulyx rubricosa a été décrite par l'entomologiste britannique Francis Walker en 1856, sous le nom initial d'Ambulyx rubricosa[1].
-Synonymie
-Ambulyx rubricosa Walker, 1856 Protonyme
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce Callambulyx rubricosa a été décrite par l'entomologiste britannique Francis Walker en 1856, sous le nom initial d'Ambulyx rubricosa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Callambulyx_rubricosa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callambulyx_rubricosa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ambulyx rubricosa Walker, 1856 Protonyme
 Basiana superba Moore, 1866
 Metagastes rubricosa piepersi Snellen, 1880
-Callambulyx rubricosa indochinensis Clark, 1936
-Taxinomie
-Callambulyx rubricosa rubricosa (Nepal, nord-est de l'Indie, Chine, Thaïlande et Vietnam)
+Callambulyx rubricosa indochinensis Clark, 1936</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Callambulyx_rubricosa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callambulyx_rubricosa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callambulyx rubricosa rubricosa (Nepal, nord-est de l'Indie, Chine, Thaïlande et Vietnam)
 Callambulyx rubricosa piepersi (Snellen, 1880) (Laos et Java)
 			Callambulyx rubricosa piepersi ♂  MHNT
 			Callambulyx rubricosa piepersi   △ ♂ MHNT
